--- a/bootcamp_collection.xlsx
+++ b/bootcamp_collection.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vinoo/Documents/GitHub/iGEM-bootcamp-test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{564ED48C-5BA6-F342-BA5A-871B8DCA5F5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C672AB20-0392-FD4D-8EBE-76B1713230F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1780" yWindow="1360" windowWidth="34060" windowHeight="19800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1780" yWindow="1360" windowWidth="34060" windowHeight="19800" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Parts and Devices" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7628" uniqueCount="7549">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7635" uniqueCount="7557">
   <si>
     <t>Collection Name</t>
   </si>
@@ -22727,15 +22727,6 @@
     <t>BBa_J428092</t>
   </si>
   <si>
-    <t>BBa_B0034_m1</t>
-  </si>
-  <si>
-    <t>BBa_E0040 Type IIS variant</t>
-  </si>
-  <si>
-    <t>Bba_B0015 variant</t>
-  </si>
-  <si>
     <t>This is B0034 but will have a 7bp spacer between the SD and ATG</t>
   </si>
   <si>
@@ -22752,6 +22743,39 @@
   </si>
   <si>
     <t>pTiR_no_insert.gb</t>
+  </si>
+  <si>
+    <t>BBa_J23100, BBa_J23101, BBa_J23106, BBa_J23105, BBa_J23116, BBa_J23117</t>
+  </si>
+  <si>
+    <t>J23100</t>
+  </si>
+  <si>
+    <t>J23106</t>
+  </si>
+  <si>
+    <t>J23105</t>
+  </si>
+  <si>
+    <t>J23116</t>
+  </si>
+  <si>
+    <t>J23117</t>
+  </si>
+  <si>
+    <t>B0034_m1</t>
+  </si>
+  <si>
+    <t>B0015_variant</t>
+  </si>
+  <si>
+    <t>E0040_Type_IIS</t>
+  </si>
+  <si>
+    <t>Bootcamp Devices</t>
+  </si>
+  <si>
+    <t>Bootcamp Devices assembled by Type IIS</t>
   </si>
 </sst>
 </file>
@@ -23104,7 +23128,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -23158,6 +23182,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -23614,8 +23641,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M983"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="15" customHeight="1"/>
@@ -23872,8 +23899,8 @@
       </c>
     </row>
     <row r="15" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A15" t="s">
-        <v>7532</v>
+      <c r="A15" s="36" t="s">
+        <v>7547</v>
       </c>
       <c r="B15" s="36" t="s">
         <v>41</v>
@@ -23903,8 +23930,8 @@
       <c r="M15" s="17"/>
     </row>
     <row r="16" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A16" t="s">
-        <v>7533</v>
+      <c r="A16" s="36" t="s">
+        <v>7506</v>
       </c>
       <c r="B16" s="36" t="s">
         <v>41</v>
@@ -23933,8 +23960,8 @@
       </c>
     </row>
     <row r="17" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A17" t="s">
-        <v>7534</v>
+      <c r="A17" s="36" t="s">
+        <v>7548</v>
       </c>
       <c r="B17" s="36" t="s">
         <v>41</v>
@@ -23964,8 +23991,8 @@
       <c r="M17" s="19"/>
     </row>
     <row r="18" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A18" t="s">
-        <v>7537</v>
+      <c r="A18" s="36" t="s">
+        <v>7549</v>
       </c>
       <c r="B18" s="36" t="s">
         <v>41</v>
@@ -23994,8 +24021,8 @@
       </c>
     </row>
     <row r="19" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A19" t="s">
-        <v>7535</v>
+      <c r="A19" s="36" t="s">
+        <v>7550</v>
       </c>
       <c r="B19" s="36" t="s">
         <v>41</v>
@@ -24024,8 +24051,8 @@
       </c>
     </row>
     <row r="20" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A20" t="s">
-        <v>7536</v>
+      <c r="A20" s="36" t="s">
+        <v>7551</v>
       </c>
       <c r="B20" s="36" t="s">
         <v>41</v>
@@ -24055,13 +24082,13 @@
     </row>
     <row r="21" spans="1:13" ht="15.75" customHeight="1">
       <c r="A21" s="36" t="s">
-        <v>7540</v>
+        <v>7552</v>
       </c>
       <c r="B21" s="36" t="s">
         <v>44</v>
       </c>
       <c r="C21" s="36" t="s">
-        <v>7543</v>
+        <v>7540</v>
       </c>
       <c r="D21" t="s">
         <v>7445</v>
@@ -24088,13 +24115,13 @@
     </row>
     <row r="22" spans="1:13" ht="15.75" customHeight="1">
       <c r="A22" s="36" t="s">
-        <v>7541</v>
+        <v>7554</v>
       </c>
       <c r="B22" t="s">
         <v>47</v>
       </c>
       <c r="C22" s="36" t="s">
-        <v>7545</v>
+        <v>7542</v>
       </c>
       <c r="D22" t="s">
         <v>7445</v>
@@ -24103,7 +24130,7 @@
         <v>42</v>
       </c>
       <c r="G22" s="36" t="s">
-        <v>7544</v>
+        <v>7541</v>
       </c>
       <c r="I22" t="s">
         <v>7419</v>
@@ -24121,13 +24148,13 @@
     </row>
     <row r="23" spans="1:13" ht="15.75" customHeight="1">
       <c r="A23" s="36" t="s">
-        <v>7542</v>
+        <v>7553</v>
       </c>
       <c r="B23" t="s">
         <v>52</v>
       </c>
       <c r="C23" s="36" t="s">
-        <v>7546</v>
+        <v>7543</v>
       </c>
       <c r="D23" t="s">
         <v>7445</v>
@@ -24154,7 +24181,7 @@
     </row>
     <row r="24" spans="1:13" ht="15.75" customHeight="1">
       <c r="A24" s="36" t="s">
-        <v>7547</v>
+        <v>7544</v>
       </c>
       <c r="B24" t="s">
         <v>4473</v>
@@ -24166,7 +24193,7 @@
         <v>7521</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>7548</v>
+        <v>7545</v>
       </c>
       <c r="I24" t="s">
         <v>7419</v>
@@ -25384,8 +25411,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="15" customHeight="1"/>
@@ -25639,13 +25666,13 @@
       <c r="D12" t="s">
         <v>22</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" s="36" t="s">
         <v>70</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G12" s="36" t="s">
         <v>71</v>
       </c>
     </row>
@@ -25697,10 +25724,30 @@
       </c>
     </row>
     <row r="14" spans="1:26" ht="15" customHeight="1">
+      <c r="A14" s="36" t="s">
+        <v>7555</v>
+      </c>
+      <c r="C14" s="36" t="s">
+        <v>7556</v>
+      </c>
       <c r="D14" t="b">
-        <v>0</v>
-      </c>
-      <c r="I14" s="28"/>
+        <v>1</v>
+      </c>
+      <c r="E14" s="36" t="s">
+        <v>7544</v>
+      </c>
+      <c r="G14" s="36" t="s">
+        <v>7546</v>
+      </c>
+      <c r="H14" s="36" t="s">
+        <v>7552</v>
+      </c>
+      <c r="I14" s="45" t="s">
+        <v>7554</v>
+      </c>
+      <c r="J14" s="36" t="s">
+        <v>7544</v>
+      </c>
     </row>
     <row r="15" spans="1:26" ht="16">
       <c r="D15" t="b">

--- a/bootcamp_collection.xlsx
+++ b/bootcamp_collection.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vinoo/Documents/GitHub/iGEM-bootcamp-test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C672AB20-0392-FD4D-8EBE-76B1713230F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE98109F-E7D6-1A4E-B7AB-96C9B2F2476C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1780" yWindow="1360" windowWidth="34060" windowHeight="19800" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1780" yWindow="1360" windowWidth="34060" windowHeight="19800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Parts and Devices" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7635" uniqueCount="7557">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7635" uniqueCount="7551">
   <si>
     <t>Collection Name</t>
   </si>
@@ -22703,36 +22703,9 @@
     <t>https://raw.githubusercontent.com/iGEM-Engineering/iGEM-distribution/develop/scripts/test/test_files/BBa_J23101.fasta</t>
   </si>
   <si>
-    <t>BBa_J23100</t>
-  </si>
-  <si>
-    <t>BBa_J23101</t>
-  </si>
-  <si>
-    <t>BBa_J23106</t>
-  </si>
-  <si>
-    <t>BBa_J23116</t>
-  </si>
-  <si>
-    <t>BBa_J23117</t>
-  </si>
-  <si>
-    <t>BBa_J23105</t>
-  </si>
-  <si>
-    <t>BBa_J428038</t>
-  </si>
-  <si>
-    <t>BBa_J428092</t>
-  </si>
-  <si>
     <t>This is B0034 but will have a 7bp spacer between the SD and ATG</t>
   </si>
   <si>
-    <t>BBa_J119040</t>
-  </si>
-  <si>
     <t>E0040 with a sbp mutation to remove a BsaI site</t>
   </si>
   <si>
@@ -22776,6 +22749,15 @@
   </si>
   <si>
     <t>Bootcamp Devices assembled by Type IIS</t>
+  </si>
+  <si>
+    <t>J428038</t>
+  </si>
+  <si>
+    <t>J119040</t>
+  </si>
+  <si>
+    <t>J428092</t>
   </si>
 </sst>
 </file>
@@ -23177,14 +23159,14 @@
     <xf numFmtId="0" fontId="22" fillId="2" borderId="9" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="22" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -23641,8 +23623,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M983"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="15" customHeight="1"/>
@@ -23702,12 +23684,12 @@
       <c r="F4" s="8"/>
     </row>
     <row r="5" spans="1:13" ht="46" customHeight="1">
-      <c r="A5" s="42"/>
-      <c r="B5" s="43"/>
-      <c r="C5" s="43"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="43"/>
-      <c r="F5" s="44"/>
+      <c r="A5" s="43"/>
+      <c r="B5" s="44"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="45"/>
     </row>
     <row r="6" spans="1:13" ht="15.75" customHeight="1"/>
     <row r="7" spans="1:13" ht="15.75" customHeight="1">
@@ -23900,7 +23882,7 @@
     </row>
     <row r="15" spans="1:13" ht="15.75" customHeight="1">
       <c r="A15" s="36" t="s">
-        <v>7547</v>
+        <v>7538</v>
       </c>
       <c r="B15" s="36" t="s">
         <v>41</v>
@@ -23912,7 +23894,7 @@
         <v>42</v>
       </c>
       <c r="G15" s="16" t="s">
-        <v>7532</v>
+        <v>7538</v>
       </c>
       <c r="I15" t="s">
         <v>7419</v>
@@ -23943,7 +23925,7 @@
         <v>42</v>
       </c>
       <c r="G16" s="18" t="s">
-        <v>7533</v>
+        <v>7506</v>
       </c>
       <c r="I16" t="s">
         <v>7419</v>
@@ -23961,7 +23943,7 @@
     </row>
     <row r="17" spans="1:13" ht="15.75" customHeight="1">
       <c r="A17" s="36" t="s">
-        <v>7548</v>
+        <v>7539</v>
       </c>
       <c r="B17" s="36" t="s">
         <v>41</v>
@@ -23972,8 +23954,8 @@
       <c r="F17" t="s">
         <v>42</v>
       </c>
-      <c r="G17" t="s">
-        <v>7534</v>
+      <c r="G17" s="36" t="s">
+        <v>7539</v>
       </c>
       <c r="I17" t="s">
         <v>7419</v>
@@ -23992,7 +23974,7 @@
     </row>
     <row r="18" spans="1:13" ht="15.75" customHeight="1">
       <c r="A18" s="36" t="s">
-        <v>7549</v>
+        <v>7540</v>
       </c>
       <c r="B18" s="36" t="s">
         <v>41</v>
@@ -24004,7 +23986,7 @@
         <v>42</v>
       </c>
       <c r="G18" s="36" t="s">
-        <v>7537</v>
+        <v>7540</v>
       </c>
       <c r="I18" t="s">
         <v>7419</v>
@@ -24022,7 +24004,7 @@
     </row>
     <row r="19" spans="1:13" ht="15.75" customHeight="1">
       <c r="A19" s="36" t="s">
-        <v>7550</v>
+        <v>7541</v>
       </c>
       <c r="B19" s="36" t="s">
         <v>41</v>
@@ -24034,7 +24016,7 @@
         <v>42</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>7535</v>
+        <v>7541</v>
       </c>
       <c r="I19" t="s">
         <v>7419</v>
@@ -24052,7 +24034,7 @@
     </row>
     <row r="20" spans="1:13" ht="15.75" customHeight="1">
       <c r="A20" s="36" t="s">
-        <v>7551</v>
+        <v>7542</v>
       </c>
       <c r="B20" s="36" t="s">
         <v>41</v>
@@ -24064,7 +24046,7 @@
         <v>42</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>7536</v>
+        <v>7542</v>
       </c>
       <c r="I20" t="s">
         <v>7419</v>
@@ -24082,13 +24064,13 @@
     </row>
     <row r="21" spans="1:13" ht="15.75" customHeight="1">
       <c r="A21" s="36" t="s">
-        <v>7552</v>
+        <v>7543</v>
       </c>
       <c r="B21" s="36" t="s">
         <v>44</v>
       </c>
       <c r="C21" s="36" t="s">
-        <v>7540</v>
+        <v>7532</v>
       </c>
       <c r="D21" t="s">
         <v>7445</v>
@@ -24097,7 +24079,7 @@
         <v>42</v>
       </c>
       <c r="G21" s="36" t="s">
-        <v>7538</v>
+        <v>7548</v>
       </c>
       <c r="I21" t="s">
         <v>7419</v>
@@ -24115,13 +24097,13 @@
     </row>
     <row r="22" spans="1:13" ht="15.75" customHeight="1">
       <c r="A22" s="36" t="s">
-        <v>7554</v>
+        <v>7545</v>
       </c>
       <c r="B22" t="s">
         <v>47</v>
       </c>
       <c r="C22" s="36" t="s">
-        <v>7542</v>
+        <v>7533</v>
       </c>
       <c r="D22" t="s">
         <v>7445</v>
@@ -24130,7 +24112,7 @@
         <v>42</v>
       </c>
       <c r="G22" s="36" t="s">
-        <v>7541</v>
+        <v>7549</v>
       </c>
       <c r="I22" t="s">
         <v>7419</v>
@@ -24148,13 +24130,13 @@
     </row>
     <row r="23" spans="1:13" ht="15.75" customHeight="1">
       <c r="A23" s="36" t="s">
-        <v>7553</v>
+        <v>7544</v>
       </c>
       <c r="B23" t="s">
         <v>52</v>
       </c>
       <c r="C23" s="36" t="s">
-        <v>7543</v>
+        <v>7534</v>
       </c>
       <c r="D23" t="s">
         <v>7445</v>
@@ -24163,7 +24145,7 @@
         <v>42</v>
       </c>
       <c r="G23" s="36" t="s">
-        <v>7539</v>
+        <v>7550</v>
       </c>
       <c r="I23" t="s">
         <v>7419</v>
@@ -24181,7 +24163,7 @@
     </row>
     <row r="24" spans="1:13" ht="15.75" customHeight="1">
       <c r="A24" s="36" t="s">
-        <v>7544</v>
+        <v>7536</v>
       </c>
       <c r="B24" t="s">
         <v>4473</v>
@@ -24193,7 +24175,7 @@
         <v>7521</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>7545</v>
+        <v>7536</v>
       </c>
       <c r="I24" t="s">
         <v>7419</v>
@@ -25411,8 +25393,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="15" customHeight="1"/>
@@ -25725,28 +25707,28 @@
     </row>
     <row r="14" spans="1:26" ht="15" customHeight="1">
       <c r="A14" s="36" t="s">
-        <v>7555</v>
+        <v>7546</v>
       </c>
       <c r="C14" s="36" t="s">
-        <v>7556</v>
+        <v>7547</v>
       </c>
       <c r="D14" t="b">
         <v>1</v>
       </c>
       <c r="E14" s="36" t="s">
-        <v>7544</v>
+        <v>7536</v>
       </c>
       <c r="G14" s="36" t="s">
-        <v>7546</v>
+        <v>7537</v>
       </c>
       <c r="H14" s="36" t="s">
-        <v>7552</v>
-      </c>
-      <c r="I14" s="45" t="s">
-        <v>7554</v>
+        <v>7543</v>
+      </c>
+      <c r="I14" s="42" t="s">
+        <v>7545</v>
       </c>
       <c r="J14" s="36" t="s">
-        <v>7544</v>
+        <v>7535</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="16">

--- a/bootcamp_collection.xlsx
+++ b/bootcamp_collection.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vinoo/Documents/GitHub/iGEM-bootcamp-test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE98109F-E7D6-1A4E-B7AB-96C9B2F2476C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7891814-57EE-3F47-91B7-F9751635EC05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1780" yWindow="1360" windowWidth="34060" windowHeight="19800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22718,9 +22718,6 @@
     <t>pTiR_no_insert.gb</t>
   </si>
   <si>
-    <t>BBa_J23100, BBa_J23101, BBa_J23106, BBa_J23105, BBa_J23116, BBa_J23117</t>
-  </si>
-  <si>
     <t>J23100</t>
   </si>
   <si>
@@ -22758,6 +22755,9 @@
   </si>
   <si>
     <t>J428092</t>
+  </si>
+  <si>
+    <t>J23100, J23101, J23106, J23105, J23116, J23117</t>
   </si>
 </sst>
 </file>
@@ -23624,7 +23624,7 @@
   <dimension ref="A1:M983"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="15" customHeight="1"/>
@@ -23882,7 +23882,7 @@
     </row>
     <row r="15" spans="1:13" ht="15.75" customHeight="1">
       <c r="A15" s="36" t="s">
-        <v>7538</v>
+        <v>7537</v>
       </c>
       <c r="B15" s="36" t="s">
         <v>41</v>
@@ -23894,7 +23894,7 @@
         <v>42</v>
       </c>
       <c r="G15" s="16" t="s">
-        <v>7538</v>
+        <v>7537</v>
       </c>
       <c r="I15" t="s">
         <v>7419</v>
@@ -23943,7 +23943,7 @@
     </row>
     <row r="17" spans="1:13" ht="15.75" customHeight="1">
       <c r="A17" s="36" t="s">
-        <v>7539</v>
+        <v>7538</v>
       </c>
       <c r="B17" s="36" t="s">
         <v>41</v>
@@ -23955,7 +23955,7 @@
         <v>42</v>
       </c>
       <c r="G17" s="36" t="s">
-        <v>7539</v>
+        <v>7538</v>
       </c>
       <c r="I17" t="s">
         <v>7419</v>
@@ -23974,7 +23974,7 @@
     </row>
     <row r="18" spans="1:13" ht="15.75" customHeight="1">
       <c r="A18" s="36" t="s">
-        <v>7540</v>
+        <v>7539</v>
       </c>
       <c r="B18" s="36" t="s">
         <v>41</v>
@@ -23986,7 +23986,7 @@
         <v>42</v>
       </c>
       <c r="G18" s="36" t="s">
-        <v>7540</v>
+        <v>7539</v>
       </c>
       <c r="I18" t="s">
         <v>7419</v>
@@ -24004,7 +24004,7 @@
     </row>
     <row r="19" spans="1:13" ht="15.75" customHeight="1">
       <c r="A19" s="36" t="s">
-        <v>7541</v>
+        <v>7540</v>
       </c>
       <c r="B19" s="36" t="s">
         <v>41</v>
@@ -24016,7 +24016,7 @@
         <v>42</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>7541</v>
+        <v>7540</v>
       </c>
       <c r="I19" t="s">
         <v>7419</v>
@@ -24034,7 +24034,7 @@
     </row>
     <row r="20" spans="1:13" ht="15.75" customHeight="1">
       <c r="A20" s="36" t="s">
-        <v>7542</v>
+        <v>7541</v>
       </c>
       <c r="B20" s="36" t="s">
         <v>41</v>
@@ -24046,7 +24046,7 @@
         <v>42</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>7542</v>
+        <v>7541</v>
       </c>
       <c r="I20" t="s">
         <v>7419</v>
@@ -24064,7 +24064,7 @@
     </row>
     <row r="21" spans="1:13" ht="15.75" customHeight="1">
       <c r="A21" s="36" t="s">
-        <v>7543</v>
+        <v>7542</v>
       </c>
       <c r="B21" s="36" t="s">
         <v>44</v>
@@ -24079,7 +24079,7 @@
         <v>42</v>
       </c>
       <c r="G21" s="36" t="s">
-        <v>7548</v>
+        <v>7547</v>
       </c>
       <c r="I21" t="s">
         <v>7419</v>
@@ -24097,7 +24097,7 @@
     </row>
     <row r="22" spans="1:13" ht="15.75" customHeight="1">
       <c r="A22" s="36" t="s">
-        <v>7545</v>
+        <v>7544</v>
       </c>
       <c r="B22" t="s">
         <v>47</v>
@@ -24112,7 +24112,7 @@
         <v>42</v>
       </c>
       <c r="G22" s="36" t="s">
-        <v>7549</v>
+        <v>7548</v>
       </c>
       <c r="I22" t="s">
         <v>7419</v>
@@ -24130,7 +24130,7 @@
     </row>
     <row r="23" spans="1:13" ht="15.75" customHeight="1">
       <c r="A23" s="36" t="s">
-        <v>7544</v>
+        <v>7543</v>
       </c>
       <c r="B23" t="s">
         <v>52</v>
@@ -24145,7 +24145,7 @@
         <v>42</v>
       </c>
       <c r="G23" s="36" t="s">
-        <v>7550</v>
+        <v>7549</v>
       </c>
       <c r="I23" t="s">
         <v>7419</v>
@@ -25394,7 +25394,7 @@
   <dimension ref="A1:Z20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="15" customHeight="1"/>
@@ -25707,10 +25707,10 @@
     </row>
     <row r="14" spans="1:26" ht="15" customHeight="1">
       <c r="A14" s="36" t="s">
+        <v>7545</v>
+      </c>
+      <c r="C14" s="36" t="s">
         <v>7546</v>
-      </c>
-      <c r="C14" s="36" t="s">
-        <v>7547</v>
       </c>
       <c r="D14" t="b">
         <v>1</v>
@@ -25719,13 +25719,13 @@
         <v>7536</v>
       </c>
       <c r="G14" s="36" t="s">
-        <v>7537</v>
+        <v>7550</v>
       </c>
       <c r="H14" s="36" t="s">
-        <v>7543</v>
+        <v>7542</v>
       </c>
       <c r="I14" s="42" t="s">
-        <v>7545</v>
+        <v>7544</v>
       </c>
       <c r="J14" s="36" t="s">
         <v>7535</v>

--- a/bootcamp_collection.xlsx
+++ b/bootcamp_collection.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vinoo/Documents/GitHub/iGEM-bootcamp-test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7891814-57EE-3F47-91B7-F9751635EC05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8F85421-FB3D-AB4D-A533-AE4488EBAEBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1780" yWindow="1360" windowWidth="34060" windowHeight="19800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23624,7 +23624,7 @@
   <dimension ref="A1:M983"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="15" customHeight="1"/>
@@ -24163,7 +24163,7 @@
     </row>
     <row r="24" spans="1:13" ht="15.75" customHeight="1">
       <c r="A24" s="36" t="s">
-        <v>7536</v>
+        <v>7535</v>
       </c>
       <c r="B24" t="s">
         <v>4473</v>
@@ -25394,7 +25394,7 @@
   <dimension ref="A1:Z20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="15" customHeight="1"/>
@@ -25716,7 +25716,7 @@
         <v>1</v>
       </c>
       <c r="E14" s="36" t="s">
-        <v>7536</v>
+        <v>7535</v>
       </c>
       <c r="G14" s="36" t="s">
         <v>7550</v>

--- a/bootcamp_collection.xlsx
+++ b/bootcamp_collection.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vinoo/Documents/GitHub/iGEM-bootcamp-test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8F85421-FB3D-AB4D-A533-AE4488EBAEBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7BF22B9-CD63-7542-BB7D-B3A4FAEC6E2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1780" yWindow="1360" windowWidth="34060" windowHeight="19800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1780" yWindow="1360" windowWidth="34060" windowHeight="19800" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Parts and Devices" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7635" uniqueCount="7551">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7637" uniqueCount="7549">
   <si>
     <t>Collection Name</t>
   </si>
@@ -22733,18 +22733,6 @@
     <t>J23117</t>
   </si>
   <si>
-    <t>B0034_m1</t>
-  </si>
-  <si>
-    <t>B0015_variant</t>
-  </si>
-  <si>
-    <t>E0040_Type_IIS</t>
-  </si>
-  <si>
-    <t>Bootcamp Devices</t>
-  </si>
-  <si>
     <t>Bootcamp Devices assembled by Type IIS</t>
   </si>
   <si>
@@ -22758,6 +22746,12 @@
   </si>
   <si>
     <t>J23100, J23101, J23106, J23105, J23116, J23117</t>
+  </si>
+  <si>
+    <t>Strong/Medium/Weak constructs</t>
+  </si>
+  <si>
+    <t>Bootcamp devices</t>
   </si>
 </sst>
 </file>
@@ -23623,8 +23617,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M983"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="15" customHeight="1"/>
@@ -24064,7 +24058,7 @@
     </row>
     <row r="21" spans="1:13" ht="15.75" customHeight="1">
       <c r="A21" s="36" t="s">
-        <v>7542</v>
+        <v>7543</v>
       </c>
       <c r="B21" s="36" t="s">
         <v>44</v>
@@ -24079,7 +24073,7 @@
         <v>42</v>
       </c>
       <c r="G21" s="36" t="s">
-        <v>7547</v>
+        <v>7543</v>
       </c>
       <c r="I21" t="s">
         <v>7419</v>
@@ -24112,7 +24106,7 @@
         <v>42</v>
       </c>
       <c r="G22" s="36" t="s">
-        <v>7548</v>
+        <v>7544</v>
       </c>
       <c r="I22" t="s">
         <v>7419</v>
@@ -24130,7 +24124,7 @@
     </row>
     <row r="23" spans="1:13" ht="15.75" customHeight="1">
       <c r="A23" s="36" t="s">
-        <v>7543</v>
+        <v>7545</v>
       </c>
       <c r="B23" t="s">
         <v>52</v>
@@ -24145,7 +24139,7 @@
         <v>42</v>
       </c>
       <c r="G23" s="36" t="s">
-        <v>7549</v>
+        <v>7545</v>
       </c>
       <c r="I23" t="s">
         <v>7419</v>
@@ -25393,8 +25387,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="15" customHeight="1"/>
@@ -25707,33 +25701,39 @@
     </row>
     <row r="14" spans="1:26" ht="15" customHeight="1">
       <c r="A14" s="36" t="s">
-        <v>7545</v>
+        <v>7547</v>
       </c>
       <c r="C14" s="36" t="s">
-        <v>7546</v>
+        <v>7542</v>
       </c>
       <c r="D14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" s="36" t="s">
         <v>7535</v>
       </c>
       <c r="G14" s="36" t="s">
-        <v>7550</v>
+        <v>7546</v>
       </c>
       <c r="H14" s="36" t="s">
-        <v>7542</v>
+        <v>7543</v>
       </c>
       <c r="I14" s="42" t="s">
         <v>7544</v>
       </c>
       <c r="J14" s="36" t="s">
-        <v>7535</v>
+        <v>7545</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="16">
+      <c r="A15" s="36" t="s">
+        <v>7548</v>
+      </c>
       <c r="D15" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="G15" s="36" t="s">
+        <v>7547</v>
       </c>
       <c r="K15" s="5"/>
     </row>

--- a/bootcamp_collection.xlsx
+++ b/bootcamp_collection.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vinoo/Documents/GitHub/iGEM-bootcamp-test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7BF22B9-CD63-7542-BB7D-B3A4FAEC6E2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70F3FA56-484D-AF45-8245-C5032F2D105D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1780" yWindow="1360" windowWidth="34060" windowHeight="19800" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25388,7 +25388,7 @@
   <dimension ref="A1:Z20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="15" customHeight="1"/>
@@ -25707,7 +25707,7 @@
         <v>7542</v>
       </c>
       <c r="D14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" s="36" t="s">
         <v>7535</v>

--- a/bootcamp_collection.xlsx
+++ b/bootcamp_collection.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vinoo/Documents/GitHub/iGEM-bootcamp-test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70F3FA56-484D-AF45-8245-C5032F2D105D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4D8B5D6-0D5C-674C-A583-826958F9673A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1780" yWindow="1360" windowWidth="34060" windowHeight="19800" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1780" yWindow="1360" windowWidth="34060" windowHeight="19800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Parts and Devices" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7637" uniqueCount="7549">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7667" uniqueCount="7561">
   <si>
     <t>Collection Name</t>
   </si>
@@ -22752,6 +22752,42 @@
   </si>
   <si>
     <t>Bootcamp devices</t>
+  </si>
+  <si>
+    <t>FSB</t>
+  </si>
+  <si>
+    <t>FSC</t>
+  </si>
+  <si>
+    <t>FSD</t>
+  </si>
+  <si>
+    <t>FSA</t>
+  </si>
+  <si>
+    <t>FSE</t>
+  </si>
+  <si>
+    <t>GGAG</t>
+  </si>
+  <si>
+    <t>TACT</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>GCTT</t>
+  </si>
+  <si>
+    <t>CGCT</t>
+  </si>
+  <si>
+    <t>agagaaagaggagaaatactag</t>
+  </si>
+  <si>
+    <t>aaccaggcatcaaataaaacgaaaggctcagtcgaaagactgggcctttcgttttatctgttgtttgtcggtgaacgctctctactagagtcacactggctcaccttcgggtgggcctttctgcgtttata</t>
   </si>
 </sst>
 </file>
@@ -23617,8 +23653,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M983"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="M33" sqref="M33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="15" customHeight="1"/>
@@ -24086,7 +24122,10 @@
       </c>
       <c r="L21" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>22</v>
+      </c>
+      <c r="M21" s="36" t="s">
+        <v>7559</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="15.75" customHeight="1">
@@ -24152,7 +24191,10 @@
       </c>
       <c r="L23" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>131</v>
+      </c>
+      <c r="M23" s="36" t="s">
+        <v>7560</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="15.75" customHeight="1">
@@ -24186,8 +24228,19 @@
       </c>
     </row>
     <row r="25" spans="1:13" ht="15.75" customHeight="1">
-      <c r="D25" s="5"/>
+      <c r="A25" s="36" t="s">
+        <v>7552</v>
+      </c>
+      <c r="B25" t="s">
+        <v>5545</v>
+      </c>
+      <c r="D25" t="s">
+        <v>7445</v>
+      </c>
       <c r="G25" s="5"/>
+      <c r="I25" t="s">
+        <v>7419</v>
+      </c>
       <c r="J25" t="b">
         <v>0</v>
       </c>
@@ -24196,10 +24249,25 @@
       </c>
       <c r="L25" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="M25" s="36" t="s">
+        <v>7554</v>
       </c>
     </row>
     <row r="26" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A26" s="36" t="s">
+        <v>7549</v>
+      </c>
+      <c r="B26" t="s">
+        <v>5545</v>
+      </c>
+      <c r="D26" t="s">
+        <v>7445</v>
+      </c>
+      <c r="I26" t="s">
+        <v>7419</v>
+      </c>
       <c r="J26" t="b">
         <v>0</v>
       </c>
@@ -24208,11 +24276,25 @@
       </c>
       <c r="L26" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="M26" s="36" t="s">
+        <v>7555</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="15.75" customHeight="1">
-      <c r="D27" s="5"/>
+      <c r="A27" s="36" t="s">
+        <v>7550</v>
+      </c>
+      <c r="B27" t="s">
+        <v>5545</v>
+      </c>
+      <c r="D27" t="s">
+        <v>7445</v>
+      </c>
+      <c r="I27" t="s">
+        <v>7419</v>
+      </c>
       <c r="J27" t="b">
         <v>0</v>
       </c>
@@ -24221,12 +24303,25 @@
       </c>
       <c r="L27" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="M27" s="36" t="s">
+        <v>7556</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A28" s="36"/>
-      <c r="D28" s="5"/>
+      <c r="A28" s="36" t="s">
+        <v>7551</v>
+      </c>
+      <c r="B28" t="s">
+        <v>5545</v>
+      </c>
+      <c r="D28" t="s">
+        <v>7445</v>
+      </c>
+      <c r="I28" t="s">
+        <v>7419</v>
+      </c>
       <c r="J28" t="b">
         <v>0</v>
       </c>
@@ -24235,12 +24330,25 @@
       </c>
       <c r="L28" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="M28" s="36" t="s">
+        <v>7557</v>
       </c>
     </row>
     <row r="29" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A29" s="36"/>
-      <c r="D29" s="5"/>
+      <c r="A29" s="36" t="s">
+        <v>7553</v>
+      </c>
+      <c r="B29" t="s">
+        <v>5545</v>
+      </c>
+      <c r="D29" t="s">
+        <v>7445</v>
+      </c>
+      <c r="I29" t="s">
+        <v>7419</v>
+      </c>
       <c r="J29" t="b">
         <v>0</v>
       </c>
@@ -24249,7 +24357,10 @@
       </c>
       <c r="L29" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="M29" s="36" t="s">
+        <v>7558</v>
       </c>
     </row>
     <row r="30" spans="1:13" ht="15.75" customHeight="1">
@@ -25387,8 +25498,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="15" customHeight="1"/>
@@ -25716,12 +25827,21 @@
         <v>7546</v>
       </c>
       <c r="H14" s="36" t="s">
+        <v>7549</v>
+      </c>
+      <c r="I14" s="42" t="s">
         <v>7543</v>
       </c>
-      <c r="I14" s="42" t="s">
+      <c r="J14" s="36" t="s">
+        <v>7550</v>
+      </c>
+      <c r="K14" s="36" t="s">
         <v>7544</v>
       </c>
-      <c r="J14" s="36" t="s">
+      <c r="L14" s="36" t="s">
+        <v>7551</v>
+      </c>
+      <c r="M14" s="36" t="s">
         <v>7545</v>
       </c>
     </row>
